--- a/Code/Results/Cases/Case_5_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9835558425890107</v>
+        <v>1.030983958090183</v>
       </c>
       <c r="D2">
-        <v>1.005033639623519</v>
+        <v>1.033470337347241</v>
       </c>
       <c r="E2">
-        <v>0.9914813558658762</v>
+        <v>1.030532910884497</v>
       </c>
       <c r="F2">
-        <v>0.993428345290662</v>
+        <v>1.039997854721433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038822149453216</v>
+        <v>1.033661287413533</v>
       </c>
       <c r="J2">
-        <v>1.006239771972937</v>
+        <v>1.036122189260779</v>
       </c>
       <c r="K2">
-        <v>1.016423290477776</v>
+        <v>1.036272593964153</v>
       </c>
       <c r="L2">
-        <v>1.003060658691755</v>
+        <v>1.033343647888147</v>
       </c>
       <c r="M2">
-        <v>1.004979999354939</v>
+        <v>1.042781452545055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9916433499634481</v>
+        <v>1.032530844451919</v>
       </c>
       <c r="D3">
-        <v>1.011025699906121</v>
+        <v>1.034611496746893</v>
       </c>
       <c r="E3">
-        <v>0.9982523865150809</v>
+        <v>1.031869280047802</v>
       </c>
       <c r="F3">
-        <v>1.001778751520502</v>
+        <v>1.041657398511187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041619995248687</v>
+        <v>1.034075149783619</v>
       </c>
       <c r="J3">
-        <v>1.012364447412602</v>
+        <v>1.037307716553154</v>
       </c>
       <c r="K3">
-        <v>1.021519422122425</v>
+        <v>1.037221853781275</v>
       </c>
       <c r="L3">
-        <v>1.008907677328158</v>
+        <v>1.034486974139655</v>
       </c>
       <c r="M3">
-        <v>1.012388923370022</v>
+        <v>1.044249094984181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9967018645709861</v>
+        <v>1.033529646683625</v>
       </c>
       <c r="D4">
-        <v>1.014775471643582</v>
+        <v>1.035347868545169</v>
       </c>
       <c r="E4">
-        <v>1.002493437072272</v>
+        <v>1.032732261303948</v>
       </c>
       <c r="F4">
-        <v>1.007005964705533</v>
+        <v>1.042729275299207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043353720403897</v>
+        <v>1.03434033643093</v>
       </c>
       <c r="J4">
-        <v>1.016190314921128</v>
+        <v>1.038072369692494</v>
       </c>
       <c r="K4">
-        <v>1.024698781392416</v>
+        <v>1.037833483536125</v>
       </c>
       <c r="L4">
-        <v>1.012561861373254</v>
+        <v>1.035224517963617</v>
       </c>
       <c r="M4">
-        <v>1.017020562958496</v>
+        <v>1.04519634062249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9987892481806702</v>
+        <v>1.033949041696738</v>
       </c>
       <c r="D5">
-        <v>1.01632312013967</v>
+        <v>1.03565695854948</v>
       </c>
       <c r="E5">
-        <v>1.004244811217548</v>
+        <v>1.033094650124751</v>
       </c>
       <c r="F5">
-        <v>1.009163969046257</v>
+        <v>1.043179434140057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044065162830265</v>
+        <v>1.034451199188477</v>
       </c>
       <c r="J5">
-        <v>1.017767786812637</v>
+        <v>1.038393247996776</v>
       </c>
       <c r="K5">
-        <v>1.02600868836183</v>
+        <v>1.038089995106868</v>
       </c>
       <c r="L5">
-        <v>1.01406895212801</v>
+        <v>1.03553404640935</v>
       </c>
       <c r="M5">
-        <v>1.018931178807904</v>
+        <v>1.0455939938154</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991375002704208</v>
+        <v>1.034019430851429</v>
       </c>
       <c r="D6">
-        <v>1.016581339195574</v>
+        <v>1.035708828117649</v>
       </c>
       <c r="E6">
-        <v>1.004537078832887</v>
+        <v>1.033155473073587</v>
       </c>
       <c r="F6">
-        <v>1.009524062120343</v>
+        <v>1.04325499123668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044183621540739</v>
+        <v>1.034469777166203</v>
       </c>
       <c r="J6">
-        <v>1.018030890555334</v>
+        <v>1.038447090974307</v>
       </c>
       <c r="K6">
-        <v>1.026227105697091</v>
+        <v>1.038133028487197</v>
       </c>
       <c r="L6">
-        <v>1.014320340658447</v>
+        <v>1.035585986434168</v>
       </c>
       <c r="M6">
-        <v>1.019249902220858</v>
+        <v>1.045660728460562</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9967299071392288</v>
+        <v>1.033535252618239</v>
       </c>
       <c r="D7">
-        <v>1.014796262175012</v>
+        <v>1.035352000501901</v>
       </c>
       <c r="E7">
-        <v>1.002516960518431</v>
+        <v>1.032737105156615</v>
       </c>
       <c r="F7">
-        <v>1.007034952042562</v>
+        <v>1.042735292130593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363293987944</v>
+        <v>1.034341820223596</v>
       </c>
       <c r="J7">
-        <v>1.016211512273193</v>
+        <v>1.038076659561133</v>
       </c>
       <c r="K7">
-        <v>1.02471638732957</v>
+        <v>1.037836913475565</v>
       </c>
       <c r="L7">
-        <v>1.012582111381778</v>
+        <v>1.035228655991103</v>
       </c>
       <c r="M7">
-        <v>1.017046233266934</v>
+        <v>1.045201656307149</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.986326858082429</v>
+        <v>1.031507184081532</v>
       </c>
       <c r="D8">
-        <v>1.007086200223707</v>
+        <v>1.033856422661779</v>
       </c>
       <c r="E8">
-        <v>0.9937999740862723</v>
+        <v>1.030984907879369</v>
       </c>
       <c r="F8">
-        <v>0.9962885259257883</v>
+        <v>1.040559117484385</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03978416363252</v>
+        <v>1.033801696443236</v>
       </c>
       <c r="J8">
-        <v>1.008339263101859</v>
+        <v>1.036523358187135</v>
       </c>
       <c r="K8">
-        <v>1.018171032411277</v>
+        <v>1.036593943748866</v>
       </c>
       <c r="L8">
-        <v>1.005064588835425</v>
+        <v>1.033730513620601</v>
       </c>
       <c r="M8">
-        <v>1.007519007307735</v>
+        <v>1.043277955587042</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.96652617936323</v>
+        <v>1.027916649987676</v>
       </c>
       <c r="D9">
-        <v>0.9924343027488681</v>
+        <v>1.031205151903585</v>
       </c>
       <c r="E9">
-        <v>0.9772633563729466</v>
+        <v>1.027883642375354</v>
       </c>
       <c r="F9">
-        <v>0.975869992877042</v>
+        <v>1.036708928402293</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842541272216</v>
+        <v>1.032829798743029</v>
       </c>
       <c r="J9">
-        <v>0.9933189978390899</v>
+        <v>1.03376704193438</v>
       </c>
       <c r="K9">
-        <v>1.005651332457621</v>
+        <v>1.03438345083938</v>
       </c>
       <c r="L9">
-        <v>0.9907364154742825</v>
+        <v>1.031072926081036</v>
       </c>
       <c r="M9">
-        <v>0.9893670830763591</v>
+        <v>1.039869195297377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9521254420077623</v>
+        <v>1.025511015586107</v>
       </c>
       <c r="D10">
-        <v>0.9818060895525174</v>
+        <v>1.02942656009402</v>
       </c>
       <c r="E10">
-        <v>0.9652840691538822</v>
+        <v>1.025806446434116</v>
       </c>
       <c r="F10">
-        <v>0.9610456253745456</v>
+        <v>1.03413103534071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027711462057856</v>
+        <v>1.032168132644771</v>
       </c>
       <c r="J10">
-        <v>0.982376267211117</v>
+        <v>1.031916106335889</v>
       </c>
       <c r="K10">
-        <v>0.9965117988220191</v>
+        <v>1.032895810379662</v>
       </c>
       <c r="L10">
-        <v>0.9803097557064855</v>
+        <v>1.029288865143228</v>
       </c>
       <c r="M10">
-        <v>0.9761557297836387</v>
+        <v>1.037583324822663</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9455472587318839</v>
+        <v>1.024466373482248</v>
       </c>
       <c r="D11">
-        <v>0.9769610100037142</v>
+        <v>1.028653691150027</v>
       </c>
       <c r="E11">
-        <v>0.9598259716818526</v>
+        <v>1.024904589467655</v>
       </c>
       <c r="F11">
-        <v>0.9542803720633198</v>
+        <v>1.033011993070014</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025349514586958</v>
+        <v>1.031878321269048</v>
       </c>
       <c r="J11">
-        <v>0.9773749103966355</v>
+        <v>1.031111346425616</v>
       </c>
       <c r="K11">
-        <v>0.9923308916340617</v>
+        <v>1.032248244067888</v>
       </c>
       <c r="L11">
-        <v>0.9755474754984652</v>
+        <v>1.028513318877577</v>
       </c>
       <c r="M11">
-        <v>0.9701192598062953</v>
+        <v>1.036590209124823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9430464582380573</v>
+        <v>1.024077885819451</v>
       </c>
       <c r="D12">
-        <v>0.9751208701698666</v>
+        <v>1.028366195528604</v>
       </c>
       <c r="E12">
-        <v>0.9577533561862457</v>
+        <v>1.024569226801413</v>
       </c>
       <c r="F12">
-        <v>0.9517094521910562</v>
+        <v>1.032595897349332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024449013994902</v>
+        <v>1.031770171827752</v>
       </c>
       <c r="J12">
-        <v>0.9754733154358799</v>
+        <v>1.030811918678439</v>
       </c>
       <c r="K12">
-        <v>0.9907407578649922</v>
+        <v>1.032007189550397</v>
       </c>
       <c r="L12">
-        <v>0.9737373023172829</v>
+        <v>1.028224781420289</v>
       </c>
       <c r="M12">
-        <v>0.967824232304476</v>
+        <v>1.036220811077865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9435855899814775</v>
+        <v>1.024161238806416</v>
       </c>
       <c r="D13">
-        <v>0.9755174878331608</v>
+        <v>1.028427883345574</v>
       </c>
       <c r="E13">
-        <v>0.9582000668286068</v>
+        <v>1.024641180259094</v>
       </c>
       <c r="F13">
-        <v>0.9522636549911864</v>
+        <v>1.032685171129839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024643260458778</v>
+        <v>1.031793392967034</v>
       </c>
       <c r="J13">
-        <v>0.9758832766053837</v>
+        <v>1.030876169909633</v>
       </c>
       <c r="K13">
-        <v>0.9910835924760081</v>
+        <v>1.032058920195221</v>
       </c>
       <c r="L13">
-        <v>0.9741275298494642</v>
+        <v>1.028286694872374</v>
       </c>
       <c r="M13">
-        <v>0.9683190090807646</v>
+        <v>1.036300071516171</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9453417497198054</v>
+        <v>1.024434270448639</v>
       </c>
       <c r="D14">
-        <v>0.9768097540068126</v>
+        <v>1.028629935239422</v>
       </c>
       <c r="E14">
-        <v>0.9596556001719275</v>
+        <v>1.024876875946869</v>
       </c>
       <c r="F14">
-        <v>0.9540690804345449</v>
+        <v>1.032977607390536</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025275564971034</v>
+        <v>1.031869391837529</v>
       </c>
       <c r="J14">
-        <v>0.9772186464950486</v>
+        <v>1.031086605972583</v>
       </c>
       <c r="K14">
-        <v>0.9922002315402144</v>
+        <v>1.032228329068837</v>
       </c>
       <c r="L14">
-        <v>0.9753987134011226</v>
+        <v>1.028489477819897</v>
       </c>
       <c r="M14">
-        <v>0.9699306636187075</v>
+        <v>1.036559685054504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9464159825537415</v>
+        <v>1.024602432785583</v>
       </c>
       <c r="D15">
-        <v>0.9776004712579002</v>
+        <v>1.028754370492155</v>
       </c>
       <c r="E15">
-        <v>0.9605462605990411</v>
+        <v>1.025022046144829</v>
       </c>
       <c r="F15">
-        <v>0.9551735807356931</v>
+        <v>1.033157729166764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025662009739458</v>
+        <v>1.031916150797161</v>
       </c>
       <c r="J15">
-        <v>0.9780354571225104</v>
+        <v>1.031216195496965</v>
       </c>
       <c r="K15">
-        <v>0.9928831886027646</v>
+        <v>1.032332638394575</v>
       </c>
       <c r="L15">
-        <v>0.9761763325605135</v>
+        <v>1.028614357196013</v>
       </c>
       <c r="M15">
-        <v>0.9709164836909987</v>
+        <v>1.036719573493738</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9525543143292065</v>
+        <v>1.025580281065294</v>
       </c>
       <c r="D16">
-        <v>0.9821221983738837</v>
+        <v>1.029477794726654</v>
       </c>
       <c r="E16">
-        <v>0.9656402257716108</v>
+        <v>1.025866247957558</v>
       </c>
       <c r="F16">
-        <v>0.9614868292119191</v>
+        <v>1.034205242417566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027865091081488</v>
+        <v>1.032187296488926</v>
       </c>
       <c r="J16">
-        <v>0.9827022927549682</v>
+        <v>1.031969445428643</v>
       </c>
       <c r="K16">
-        <v>0.9967842707273723</v>
+        <v>1.032938714776951</v>
       </c>
       <c r="L16">
-        <v>0.9806202657085953</v>
+        <v>1.029340270869527</v>
       </c>
       <c r="M16">
-        <v>0.9765492574205205</v>
+        <v>1.037649163692839</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9563091330896046</v>
+        <v>1.026192851174148</v>
       </c>
       <c r="D17">
-        <v>0.9848908990726059</v>
+        <v>1.029930843939386</v>
       </c>
       <c r="E17">
-        <v>0.968760008705061</v>
+        <v>1.026395139460786</v>
       </c>
       <c r="F17">
-        <v>0.9653503381316879</v>
+        <v>1.034861561473141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029208112574335</v>
+        <v>1.032356491232462</v>
       </c>
       <c r="J17">
-        <v>0.9855563841764278</v>
+        <v>1.032441051077668</v>
       </c>
       <c r="K17">
-        <v>0.9991691354142266</v>
+        <v>1.033317972732018</v>
       </c>
       <c r="L17">
-        <v>0.9833388950443018</v>
+        <v>1.029794798228848</v>
       </c>
       <c r="M17">
-        <v>0.9799944589450331</v>
+        <v>1.038231374077704</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9584666475956883</v>
+        <v>1.02654986564022</v>
       </c>
       <c r="D18">
-        <v>0.9864826875898383</v>
+        <v>1.030194837313329</v>
       </c>
       <c r="E18">
-        <v>0.9705539193940678</v>
+        <v>1.026703400337534</v>
       </c>
       <c r="F18">
-        <v>0.9675709055765063</v>
+        <v>1.035244112254767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029978110146391</v>
+        <v>1.032454860992907</v>
       </c>
       <c r="J18">
-        <v>0.9871960709321729</v>
+        <v>1.032715813628345</v>
       </c>
       <c r="K18">
-        <v>1.000538899346001</v>
+        <v>1.033538859153372</v>
       </c>
       <c r="L18">
-        <v>0.9849010550196573</v>
+        <v>1.030059624013456</v>
       </c>
       <c r="M18">
-        <v>0.9819739140853722</v>
+        <v>1.03857064815988</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9591969376387652</v>
+        <v>1.026671549986124</v>
       </c>
       <c r="D19">
-        <v>0.9870216303023902</v>
+        <v>1.030284807935947</v>
       </c>
       <c r="E19">
-        <v>0.9711613454515082</v>
+        <v>1.026808470169363</v>
       </c>
       <c r="F19">
-        <v>0.968322639080617</v>
+        <v>1.03537450695501</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030238451458701</v>
+        <v>1.032488348606146</v>
       </c>
       <c r="J19">
-        <v>0.987751032668949</v>
+        <v>1.032809447064336</v>
       </c>
       <c r="K19">
-        <v>1.0010024427961</v>
+        <v>1.033614120250841</v>
       </c>
       <c r="L19">
-        <v>0.9854298266312237</v>
+        <v>1.030149873445198</v>
       </c>
       <c r="M19">
-        <v>0.9826439053853844</v>
+        <v>1.038686278043967</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9559096889922682</v>
+        <v>1.026127158006584</v>
       </c>
       <c r="D20">
-        <v>0.9845962645791639</v>
+        <v>1.029882263262796</v>
       </c>
       <c r="E20">
-        <v>0.9684279851660927</v>
+        <v>1.026338418535402</v>
       </c>
       <c r="F20">
-        <v>0.9649392687945907</v>
+        <v>1.034791172571873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029065415596217</v>
+        <v>1.032338371228029</v>
       </c>
       <c r="J20">
-        <v>0.9852527880860507</v>
+        <v>1.032390485116323</v>
       </c>
       <c r="K20">
-        <v>0.9989154879991936</v>
+        <v>1.033277315957499</v>
       </c>
       <c r="L20">
-        <v>0.9830496772314655</v>
+        <v>1.029746062046677</v>
       </c>
       <c r="M20">
-        <v>0.9796279679777684</v>
+        <v>1.038168941536094</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9448262404270223</v>
+        <v>1.024353882263016</v>
       </c>
       <c r="D21">
-        <v>0.9764303657076339</v>
+        <v>1.028570447587395</v>
       </c>
       <c r="E21">
-        <v>0.9592282705653199</v>
+        <v>1.024807479811336</v>
       </c>
       <c r="F21">
-        <v>0.9535390818718601</v>
+        <v>1.032891504277321</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025090025265994</v>
+        <v>1.031847025915259</v>
       </c>
       <c r="J21">
-        <v>0.9768266627427804</v>
+        <v>1.031024651788277</v>
       </c>
       <c r="K21">
-        <v>0.9918724666759942</v>
+        <v>1.032178456781019</v>
       </c>
       <c r="L21">
-        <v>0.9750255562337813</v>
+        <v>1.028429776205474</v>
       </c>
       <c r="M21">
-        <v>0.9694575768800394</v>
+        <v>1.036483249532288</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9375220306921939</v>
+        <v>1.023236279578773</v>
       </c>
       <c r="D22">
-        <v>0.9710595911272561</v>
+        <v>1.027743236398251</v>
       </c>
       <c r="E22">
-        <v>0.9531795223689985</v>
+        <v>1.023842755926359</v>
       </c>
       <c r="F22">
-        <v>0.9460320080290737</v>
+        <v>1.031694592091068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022455186196518</v>
+        <v>1.031535199345164</v>
       </c>
       <c r="J22">
-        <v>0.9712723155700659</v>
+        <v>1.0301629769571</v>
       </c>
       <c r="K22">
-        <v>0.9872270219295353</v>
+        <v>1.031484550629257</v>
       </c>
       <c r="L22">
-        <v>0.9697392837265674</v>
+        <v>1.027599479985435</v>
       </c>
       <c r="M22">
-        <v>0.9627541478045224</v>
+        <v>1.035420427492058</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9414281795089418</v>
+        <v>1.023828999520372</v>
       </c>
       <c r="D23">
-        <v>0.9739306570545276</v>
+        <v>1.028181988835758</v>
       </c>
       <c r="E23">
-        <v>0.9564128618803853</v>
+        <v>1.024354382482256</v>
       </c>
       <c r="F23">
-        <v>0.9500460844353711</v>
+        <v>1.03232934078318</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023865592330549</v>
+        <v>1.031700780567697</v>
       </c>
       <c r="J23">
-        <v>0.9742427376408486</v>
+        <v>1.030620047151396</v>
       </c>
       <c r="K23">
-        <v>0.9897116078617579</v>
+        <v>1.031852691230869</v>
       </c>
       <c r="L23">
-        <v>0.9725660386183174</v>
+        <v>1.028039894177053</v>
       </c>
       <c r="M23">
-        <v>0.9663390725775789</v>
+        <v>1.035984134250223</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.956090280918677</v>
+        <v>1.026156842809101</v>
       </c>
       <c r="D24">
-        <v>0.9847294684663767</v>
+        <v>1.029904215590868</v>
       </c>
       <c r="E24">
-        <v>0.9685780917262599</v>
+        <v>1.026364048998855</v>
       </c>
       <c r="F24">
-        <v>0.9651251147238031</v>
+        <v>1.034822979117782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129935361708</v>
+        <v>1.03234655986279</v>
       </c>
       <c r="J24">
-        <v>0.9853900472030085</v>
+        <v>1.032413334677393</v>
       </c>
       <c r="K24">
-        <v>0.9990301658672385</v>
+        <v>1.033295688018453</v>
       </c>
       <c r="L24">
-        <v>0.9831804348516924</v>
+        <v>1.029768084732949</v>
       </c>
       <c r="M24">
-        <v>0.9797936620089724</v>
+        <v>1.038197153101182</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9718393486579385</v>
+        <v>1.028846947426361</v>
       </c>
       <c r="D25">
-        <v>0.9963621016783217</v>
+        <v>1.031892491426988</v>
       </c>
       <c r="E25">
-        <v>0.9816934099670533</v>
+        <v>1.028687064456735</v>
       </c>
       <c r="F25">
-        <v>0.9813447038207735</v>
+        <v>1.037706200489214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034719595756749</v>
+        <v>1.033083463583557</v>
       </c>
       <c r="J25">
-        <v>0.997353072363932</v>
+        <v>1.034481940473025</v>
       </c>
       <c r="K25">
-        <v>1.009017155062845</v>
+        <v>1.034957351748993</v>
       </c>
       <c r="L25">
-        <v>0.9945827192570986</v>
+        <v>1.031762116754378</v>
       </c>
       <c r="M25">
-        <v>0.9942396913569187</v>
+        <v>1.040752751152218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_86/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030983958090183</v>
+        <v>0.9835558425890121</v>
       </c>
       <c r="D2">
-        <v>1.033470337347241</v>
+        <v>1.00503363962352</v>
       </c>
       <c r="E2">
-        <v>1.030532910884497</v>
+        <v>0.9914813558658773</v>
       </c>
       <c r="F2">
-        <v>1.039997854721433</v>
+        <v>0.993428345290663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033661287413533</v>
+        <v>1.038822149453217</v>
       </c>
       <c r="J2">
-        <v>1.036122189260779</v>
+        <v>1.006239771972938</v>
       </c>
       <c r="K2">
-        <v>1.036272593964153</v>
+        <v>1.016423290477777</v>
       </c>
       <c r="L2">
-        <v>1.033343647888147</v>
+        <v>1.003060658691756</v>
       </c>
       <c r="M2">
-        <v>1.042781452545055</v>
+        <v>1.00497999935494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032530844451919</v>
+        <v>0.9916433499634481</v>
       </c>
       <c r="D3">
-        <v>1.034611496746893</v>
+        <v>1.01102569990612</v>
       </c>
       <c r="E3">
-        <v>1.031869280047802</v>
+        <v>0.9982523865150806</v>
       </c>
       <c r="F3">
-        <v>1.041657398511187</v>
+        <v>1.001778751520502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034075149783619</v>
+        <v>1.041619995248687</v>
       </c>
       <c r="J3">
-        <v>1.037307716553154</v>
+        <v>1.012364447412601</v>
       </c>
       <c r="K3">
-        <v>1.037221853781275</v>
+        <v>1.021519422122425</v>
       </c>
       <c r="L3">
-        <v>1.034486974139655</v>
+        <v>1.008907677328158</v>
       </c>
       <c r="M3">
-        <v>1.044249094984181</v>
+        <v>1.012388923370021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033529646683625</v>
+        <v>0.9967018645709864</v>
       </c>
       <c r="D4">
-        <v>1.035347868545169</v>
+        <v>1.014775471643582</v>
       </c>
       <c r="E4">
-        <v>1.032732261303948</v>
+        <v>1.002493437072272</v>
       </c>
       <c r="F4">
-        <v>1.042729275299207</v>
+        <v>1.007005964705533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03434033643093</v>
+        <v>1.043353720403898</v>
       </c>
       <c r="J4">
-        <v>1.038072369692494</v>
+        <v>1.016190314921128</v>
       </c>
       <c r="K4">
-        <v>1.037833483536125</v>
+        <v>1.024698781392417</v>
       </c>
       <c r="L4">
-        <v>1.035224517963617</v>
+        <v>1.012561861373254</v>
       </c>
       <c r="M4">
-        <v>1.04519634062249</v>
+        <v>1.017020562958496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033949041696738</v>
+        <v>0.9987892481806687</v>
       </c>
       <c r="D5">
-        <v>1.03565695854948</v>
+        <v>1.016323120139669</v>
       </c>
       <c r="E5">
-        <v>1.033094650124751</v>
+        <v>1.004244811217546</v>
       </c>
       <c r="F5">
-        <v>1.043179434140057</v>
+        <v>1.009163969046256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034451199188477</v>
+        <v>1.044065162830264</v>
       </c>
       <c r="J5">
-        <v>1.038393247996776</v>
+        <v>1.017767786812636</v>
       </c>
       <c r="K5">
-        <v>1.038089995106868</v>
+        <v>1.026008688361829</v>
       </c>
       <c r="L5">
-        <v>1.03553404640935</v>
+        <v>1.014068952128009</v>
       </c>
       <c r="M5">
-        <v>1.0455939938154</v>
+        <v>1.018931178807902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034019430851429</v>
+        <v>0.999137500270422</v>
       </c>
       <c r="D6">
-        <v>1.035708828117649</v>
+        <v>1.016581339195574</v>
       </c>
       <c r="E6">
-        <v>1.033155473073587</v>
+        <v>1.004537078832888</v>
       </c>
       <c r="F6">
-        <v>1.04325499123668</v>
+        <v>1.009524062120343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034469777166203</v>
+        <v>1.044183621540739</v>
       </c>
       <c r="J6">
-        <v>1.038447090974307</v>
+        <v>1.018030890555335</v>
       </c>
       <c r="K6">
-        <v>1.038133028487197</v>
+        <v>1.026227105697092</v>
       </c>
       <c r="L6">
-        <v>1.035585986434168</v>
+        <v>1.014320340658448</v>
       </c>
       <c r="M6">
-        <v>1.045660728460562</v>
+        <v>1.019249902220858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033535252618239</v>
+        <v>0.9967299071392269</v>
       </c>
       <c r="D7">
-        <v>1.035352000501901</v>
+        <v>1.01479626217501</v>
       </c>
       <c r="E7">
-        <v>1.032737105156615</v>
+        <v>1.002516960518429</v>
       </c>
       <c r="F7">
-        <v>1.042735292130593</v>
+        <v>1.00703495204256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034341820223596</v>
+        <v>1.043363293987943</v>
       </c>
       <c r="J7">
-        <v>1.038076659561133</v>
+        <v>1.016211512273191</v>
       </c>
       <c r="K7">
-        <v>1.037836913475565</v>
+        <v>1.024716387329569</v>
       </c>
       <c r="L7">
-        <v>1.035228655991103</v>
+        <v>1.012582111381776</v>
       </c>
       <c r="M7">
-        <v>1.045201656307149</v>
+        <v>1.017046233266931</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031507184081532</v>
+        <v>0.9863268580824291</v>
       </c>
       <c r="D8">
-        <v>1.033856422661779</v>
+        <v>1.007086200223707</v>
       </c>
       <c r="E8">
-        <v>1.030984907879369</v>
+        <v>0.9937999740862725</v>
       </c>
       <c r="F8">
-        <v>1.040559117484385</v>
+        <v>0.9962885259257883</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033801696443236</v>
+        <v>1.03978416363252</v>
       </c>
       <c r="J8">
-        <v>1.036523358187135</v>
+        <v>1.008339263101859</v>
       </c>
       <c r="K8">
-        <v>1.036593943748866</v>
+        <v>1.018171032411277</v>
       </c>
       <c r="L8">
-        <v>1.033730513620601</v>
+        <v>1.005064588835425</v>
       </c>
       <c r="M8">
-        <v>1.043277955587042</v>
+        <v>1.007519007307735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027916649987676</v>
+        <v>0.966526179363229</v>
       </c>
       <c r="D9">
-        <v>1.031205151903585</v>
+        <v>0.9924343027488676</v>
       </c>
       <c r="E9">
-        <v>1.027883642375354</v>
+        <v>0.9772633563729457</v>
       </c>
       <c r="F9">
-        <v>1.036708928402293</v>
+        <v>0.975869992877041</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032829798743029</v>
+        <v>1.032842541272216</v>
       </c>
       <c r="J9">
-        <v>1.03376704193438</v>
+        <v>0.9933189978390892</v>
       </c>
       <c r="K9">
-        <v>1.03438345083938</v>
+        <v>1.00565133245762</v>
       </c>
       <c r="L9">
-        <v>1.031072926081036</v>
+        <v>0.9907364154742816</v>
       </c>
       <c r="M9">
-        <v>1.039869195297377</v>
+        <v>0.9893670830763583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025511015586107</v>
+        <v>0.9521254420077602</v>
       </c>
       <c r="D10">
-        <v>1.02942656009402</v>
+        <v>0.9818060895525156</v>
       </c>
       <c r="E10">
-        <v>1.025806446434116</v>
+        <v>0.9652840691538801</v>
       </c>
       <c r="F10">
-        <v>1.03413103534071</v>
+        <v>0.9610456253745443</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032168132644771</v>
+        <v>1.027711462057855</v>
       </c>
       <c r="J10">
-        <v>1.031916106335889</v>
+        <v>0.9823762672111152</v>
       </c>
       <c r="K10">
-        <v>1.032895810379662</v>
+        <v>0.9965117988220177</v>
       </c>
       <c r="L10">
-        <v>1.029288865143228</v>
+        <v>0.9803097557064832</v>
       </c>
       <c r="M10">
-        <v>1.037583324822663</v>
+        <v>0.9761557297836373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024466373482248</v>
+        <v>0.9455472587318825</v>
       </c>
       <c r="D11">
-        <v>1.028653691150027</v>
+        <v>0.9769610100037132</v>
       </c>
       <c r="E11">
-        <v>1.024904589467655</v>
+        <v>0.9598259716818515</v>
       </c>
       <c r="F11">
-        <v>1.033011993070014</v>
+        <v>0.9542803720633184</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031878321269048</v>
+        <v>1.025349514586958</v>
       </c>
       <c r="J11">
-        <v>1.031111346425616</v>
+        <v>0.9773749103966342</v>
       </c>
       <c r="K11">
-        <v>1.032248244067888</v>
+        <v>0.9923308916340607</v>
       </c>
       <c r="L11">
-        <v>1.028513318877577</v>
+        <v>0.9755474754984641</v>
       </c>
       <c r="M11">
-        <v>1.036590209124823</v>
+        <v>0.970119259806294</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024077885819451</v>
+        <v>0.9430464582380564</v>
       </c>
       <c r="D12">
-        <v>1.028366195528604</v>
+        <v>0.9751208701698656</v>
       </c>
       <c r="E12">
-        <v>1.024569226801413</v>
+        <v>0.9577533561862447</v>
       </c>
       <c r="F12">
-        <v>1.032595897349332</v>
+        <v>0.9517094521910552</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031770171827752</v>
+        <v>1.024449013994902</v>
       </c>
       <c r="J12">
-        <v>1.030811918678439</v>
+        <v>0.975473315435879</v>
       </c>
       <c r="K12">
-        <v>1.032007189550397</v>
+        <v>0.9907407578649913</v>
       </c>
       <c r="L12">
-        <v>1.028224781420289</v>
+        <v>0.9737373023172819</v>
       </c>
       <c r="M12">
-        <v>1.036220811077865</v>
+        <v>0.9678242323044751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024161238806416</v>
+        <v>0.943585589981478</v>
       </c>
       <c r="D13">
-        <v>1.028427883345574</v>
+        <v>0.9755174878331613</v>
       </c>
       <c r="E13">
-        <v>1.024641180259094</v>
+        <v>0.9582000668286068</v>
       </c>
       <c r="F13">
-        <v>1.032685171129839</v>
+        <v>0.9522636549911866</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031793392967034</v>
+        <v>1.024643260458778</v>
       </c>
       <c r="J13">
-        <v>1.030876169909633</v>
+        <v>0.9758832766053841</v>
       </c>
       <c r="K13">
-        <v>1.032058920195221</v>
+        <v>0.9910835924760089</v>
       </c>
       <c r="L13">
-        <v>1.028286694872374</v>
+        <v>0.9741275298494644</v>
       </c>
       <c r="M13">
-        <v>1.036300071516171</v>
+        <v>0.9683190090807648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024434270448639</v>
+        <v>0.9453417497198033</v>
       </c>
       <c r="D14">
-        <v>1.028629935239422</v>
+        <v>0.9768097540068109</v>
       </c>
       <c r="E14">
-        <v>1.024876875946869</v>
+        <v>0.9596556001719259</v>
       </c>
       <c r="F14">
-        <v>1.032977607390536</v>
+        <v>0.9540690804345427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031869391837529</v>
+        <v>1.025275564971033</v>
       </c>
       <c r="J14">
-        <v>1.031086605972583</v>
+        <v>0.9772186464950466</v>
       </c>
       <c r="K14">
-        <v>1.032228329068837</v>
+        <v>0.992200231540213</v>
       </c>
       <c r="L14">
-        <v>1.028489477819897</v>
+        <v>0.9753987134011208</v>
       </c>
       <c r="M14">
-        <v>1.036559685054504</v>
+        <v>0.9699306636187056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024602432785583</v>
+        <v>0.9464159825537395</v>
       </c>
       <c r="D15">
-        <v>1.028754370492155</v>
+        <v>0.9776004712578988</v>
       </c>
       <c r="E15">
-        <v>1.025022046144829</v>
+        <v>0.9605462605990399</v>
       </c>
       <c r="F15">
-        <v>1.033157729166764</v>
+        <v>0.9551735807356915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031916150797161</v>
+        <v>1.025662009739457</v>
       </c>
       <c r="J15">
-        <v>1.031216195496965</v>
+        <v>0.9780354571225091</v>
       </c>
       <c r="K15">
-        <v>1.032332638394575</v>
+        <v>0.9928831886027633</v>
       </c>
       <c r="L15">
-        <v>1.028614357196013</v>
+        <v>0.9761763325605121</v>
       </c>
       <c r="M15">
-        <v>1.036719573493738</v>
+        <v>0.9709164836909968</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025580281065294</v>
+        <v>0.9525543143292077</v>
       </c>
       <c r="D16">
-        <v>1.029477794726654</v>
+        <v>0.9821221983738849</v>
       </c>
       <c r="E16">
-        <v>1.025866247957558</v>
+        <v>0.9656402257716119</v>
       </c>
       <c r="F16">
-        <v>1.034205242417566</v>
+        <v>0.9614868292119203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032187296488926</v>
+        <v>1.027865091081489</v>
       </c>
       <c r="J16">
-        <v>1.031969445428643</v>
+        <v>0.9827022927549696</v>
       </c>
       <c r="K16">
-        <v>1.032938714776951</v>
+        <v>0.9967842707273735</v>
       </c>
       <c r="L16">
-        <v>1.029340270869527</v>
+        <v>0.9806202657085962</v>
       </c>
       <c r="M16">
-        <v>1.037649163692839</v>
+        <v>0.9765492574205217</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026192851174148</v>
+        <v>0.956309133089604</v>
       </c>
       <c r="D17">
-        <v>1.029930843939386</v>
+        <v>0.9848908990726053</v>
       </c>
       <c r="E17">
-        <v>1.026395139460786</v>
+        <v>0.9687600087050605</v>
       </c>
       <c r="F17">
-        <v>1.034861561473141</v>
+        <v>0.9653503381316874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032356491232462</v>
+        <v>1.029208112574335</v>
       </c>
       <c r="J17">
-        <v>1.032441051077668</v>
+        <v>0.9855563841764273</v>
       </c>
       <c r="K17">
-        <v>1.033317972732018</v>
+        <v>0.999169135414226</v>
       </c>
       <c r="L17">
-        <v>1.029794798228848</v>
+        <v>0.9833388950443015</v>
       </c>
       <c r="M17">
-        <v>1.038231374077704</v>
+        <v>0.9799944589450323</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02654986564022</v>
+        <v>0.9584666475956906</v>
       </c>
       <c r="D18">
-        <v>1.030194837313329</v>
+        <v>0.9864826875898398</v>
       </c>
       <c r="E18">
-        <v>1.026703400337534</v>
+        <v>0.9705539193940694</v>
       </c>
       <c r="F18">
-        <v>1.035244112254767</v>
+        <v>0.9675709055765082</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032454860992907</v>
+        <v>1.029978110146393</v>
       </c>
       <c r="J18">
-        <v>1.032715813628345</v>
+        <v>0.9871960709321751</v>
       </c>
       <c r="K18">
-        <v>1.033538859153372</v>
+        <v>1.000538899346003</v>
       </c>
       <c r="L18">
-        <v>1.030059624013456</v>
+        <v>0.9849010550196589</v>
       </c>
       <c r="M18">
-        <v>1.03857064815988</v>
+        <v>0.9819739140853742</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026671549986124</v>
+        <v>0.9591969376387638</v>
       </c>
       <c r="D19">
-        <v>1.030284807935947</v>
+        <v>0.9870216303023888</v>
       </c>
       <c r="E19">
-        <v>1.026808470169363</v>
+        <v>0.9711613454515069</v>
       </c>
       <c r="F19">
-        <v>1.03537450695501</v>
+        <v>0.9683226390806157</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032488348606146</v>
+        <v>1.0302384514587</v>
       </c>
       <c r="J19">
-        <v>1.032809447064336</v>
+        <v>0.9877510326689475</v>
       </c>
       <c r="K19">
-        <v>1.033614120250841</v>
+        <v>1.001002442796099</v>
       </c>
       <c r="L19">
-        <v>1.030149873445198</v>
+        <v>0.9854298266312227</v>
       </c>
       <c r="M19">
-        <v>1.038686278043967</v>
+        <v>0.982643905385383</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026127158006584</v>
+        <v>0.9559096889922655</v>
       </c>
       <c r="D20">
-        <v>1.029882263262796</v>
+        <v>0.9845962645791618</v>
       </c>
       <c r="E20">
-        <v>1.026338418535402</v>
+        <v>0.9684279851660901</v>
       </c>
       <c r="F20">
-        <v>1.034791172571873</v>
+        <v>0.9649392687945882</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032338371228029</v>
+        <v>1.029065415596216</v>
       </c>
       <c r="J20">
-        <v>1.032390485116323</v>
+        <v>0.9852527880860484</v>
       </c>
       <c r="K20">
-        <v>1.033277315957499</v>
+        <v>0.9989154879991915</v>
       </c>
       <c r="L20">
-        <v>1.029746062046677</v>
+        <v>0.9830496772314626</v>
       </c>
       <c r="M20">
-        <v>1.038168941536094</v>
+        <v>0.9796279679777661</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024353882263016</v>
+        <v>0.9448262404270212</v>
       </c>
       <c r="D21">
-        <v>1.028570447587395</v>
+        <v>0.9764303657076333</v>
       </c>
       <c r="E21">
-        <v>1.024807479811336</v>
+        <v>0.9592282705653188</v>
       </c>
       <c r="F21">
-        <v>1.032891504277321</v>
+        <v>0.9535390818718591</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031847025915259</v>
+        <v>1.025090025265994</v>
       </c>
       <c r="J21">
-        <v>1.031024651788277</v>
+        <v>0.9768266627427795</v>
       </c>
       <c r="K21">
-        <v>1.032178456781019</v>
+        <v>0.9918724666759936</v>
       </c>
       <c r="L21">
-        <v>1.028429776205474</v>
+        <v>0.9750255562337805</v>
       </c>
       <c r="M21">
-        <v>1.036483249532288</v>
+        <v>0.9694575768800385</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023236279578773</v>
+        <v>0.9375220306921946</v>
       </c>
       <c r="D22">
-        <v>1.027743236398251</v>
+        <v>0.9710595911272571</v>
       </c>
       <c r="E22">
-        <v>1.023842755926359</v>
+        <v>0.9531795223689991</v>
       </c>
       <c r="F22">
-        <v>1.031694592091068</v>
+        <v>0.9460320080290741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031535199345164</v>
+        <v>1.022455186196519</v>
       </c>
       <c r="J22">
-        <v>1.0301629769571</v>
+        <v>0.9712723155700669</v>
       </c>
       <c r="K22">
-        <v>1.031484550629257</v>
+        <v>0.9872270219295362</v>
       </c>
       <c r="L22">
-        <v>1.027599479985435</v>
+        <v>0.9697392837265679</v>
       </c>
       <c r="M22">
-        <v>1.035420427492058</v>
+        <v>0.962754147804523</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023828999520372</v>
+        <v>0.9414281795089422</v>
       </c>
       <c r="D23">
-        <v>1.028181988835758</v>
+        <v>0.9739306570545281</v>
       </c>
       <c r="E23">
-        <v>1.024354382482256</v>
+        <v>0.9564128618803858</v>
       </c>
       <c r="F23">
-        <v>1.03232934078318</v>
+        <v>0.9500460844353716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031700780567697</v>
+        <v>1.023865592330549</v>
       </c>
       <c r="J23">
-        <v>1.030620047151396</v>
+        <v>0.974242737640849</v>
       </c>
       <c r="K23">
-        <v>1.031852691230869</v>
+        <v>0.9897116078617583</v>
       </c>
       <c r="L23">
-        <v>1.028039894177053</v>
+        <v>0.9725660386183178</v>
       </c>
       <c r="M23">
-        <v>1.035984134250223</v>
+        <v>0.9663390725775791</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026156842809101</v>
+        <v>0.9560902809186754</v>
       </c>
       <c r="D24">
-        <v>1.029904215590868</v>
+        <v>0.9847294684663759</v>
       </c>
       <c r="E24">
-        <v>1.026364048998855</v>
+        <v>0.9685780917262586</v>
       </c>
       <c r="F24">
-        <v>1.034822979117782</v>
+        <v>0.9651251147238021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03234655986279</v>
+        <v>1.029129935361707</v>
       </c>
       <c r="J24">
-        <v>1.032413334677393</v>
+        <v>0.9853900472030074</v>
       </c>
       <c r="K24">
-        <v>1.033295688018453</v>
+        <v>0.9990301658672377</v>
       </c>
       <c r="L24">
-        <v>1.029768084732949</v>
+        <v>0.9831804348516912</v>
       </c>
       <c r="M24">
-        <v>1.038197153101182</v>
+        <v>0.9797936620089714</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028846947426361</v>
+        <v>0.9718393486579361</v>
       </c>
       <c r="D25">
-        <v>1.031892491426988</v>
+        <v>0.9963621016783194</v>
       </c>
       <c r="E25">
-        <v>1.028687064456735</v>
+        <v>0.9816934099670509</v>
       </c>
       <c r="F25">
-        <v>1.037706200489214</v>
+        <v>0.9813447038207713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033083463583557</v>
+        <v>1.034719595756749</v>
       </c>
       <c r="J25">
-        <v>1.034481940473025</v>
+        <v>0.9973530723639297</v>
       </c>
       <c r="K25">
-        <v>1.034957351748993</v>
+        <v>1.009017155062843</v>
       </c>
       <c r="L25">
-        <v>1.031762116754378</v>
+        <v>0.994582719257096</v>
       </c>
       <c r="M25">
-        <v>1.040752751152218</v>
+        <v>0.9942396913569165</v>
       </c>
     </row>
   </sheetData>
